--- a/Planilla de Métricas.xlsx
+++ b/Planilla de Métricas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Desktop\TP4TMG7(OIA)\ConflictoEntreReinas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\ConflictoEntreReinas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Preparación de la Prueba</t>
   </si>
@@ -130,16 +130,19 @@
     <t>TOTALES Desarrollo</t>
   </si>
   <si>
-    <t>Crear clase archivo, con lectura y escritura de archivos</t>
-  </si>
-  <si>
-    <t>Crear clase Reina y tablero</t>
-  </si>
-  <si>
-    <t>Crear el método resolver de tablero</t>
-  </si>
-  <si>
-    <t>Crear el método ordenar de tablero</t>
+    <t>Conflicto Entre Reinas</t>
+  </si>
+  <si>
+    <t>Crear el método resolver de Tablero</t>
+  </si>
+  <si>
+    <t>Crear el método ordenar de Tablero</t>
+  </si>
+  <si>
+    <t>Crear clase Archivo, con lectura y escritura de archivos</t>
+  </si>
+  <si>
+    <t>Crear clase Reina y Tablero</t>
   </si>
 </sst>
 </file>
@@ -837,23 +840,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -864,23 +856,44 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -890,14 +903,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -908,36 +939,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,7 +1551,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1563,21 +1566,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:16" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60"/>
@@ -1596,12 +1601,12 @@
     </row>
     <row r="3" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1686,12 +1691,12 @@
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1717,15 +1722,15 @@
       <c r="E8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="14"/>
       <c r="P8" s="18"/>
     </row>
@@ -1744,15 +1749,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
         <v>4.8611111111110938E-3</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="19"/>
       <c r="P9" s="22"/>
     </row>
@@ -1776,12 +1781,12 @@
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1807,15 +1812,15 @@
       <c r="E12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="14"/>
       <c r="P12" s="18"/>
     </row>
@@ -1834,15 +1839,15 @@
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
         <v>3.5416666666666652E-2</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="19"/>
       <c r="P13" s="22"/>
     </row>
@@ -1866,50 +1871,50 @@
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="61" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="61" t="s">
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63" t="s">
+      <c r="L16" s="89"/>
+      <c r="M16" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="93" t="s">
         <v>2</v>
       </c>
       <c r="O16" s="14"/>
@@ -1917,10 +1922,10 @@
     </row>
     <row r="17" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="39" t="s">
         <v>12</v>
       </c>
@@ -1942,8 +1947,8 @@
       <c r="L17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="93"/>
       <c r="O17" s="14"/>
       <c r="P17" s="18"/>
     </row>
@@ -1953,11 +1958,11 @@
         <f>ROW($B18)-16</f>
         <v>2</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="C18" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="3">
         <v>30</v>
       </c>
@@ -1996,11 +2001,11 @@
         <f t="shared" ref="B19:B25" si="0">ROW($B19)-16</f>
         <v>3</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="3">
         <v>60</v>
       </c>
@@ -2039,11 +2044,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="C20" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="3">
         <v>30</v>
       </c>
@@ -2082,11 +2087,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="3">
         <v>25</v>
       </c>
@@ -2125,9 +2130,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -2152,9 +2157,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -2179,9 +2184,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -2200,9 +2205,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -2223,12 +2228,12 @@
     </row>
     <row r="26" spans="1:16" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="45">
         <f>IF(SUM(F18:F25)=0,"Completar",SUM(F18:F25))</f>
         <v>145</v>
@@ -2285,12 +2290,12 @@
     </row>
     <row r="28" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2373,33 +2378,33 @@
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="72">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="81">
         <f>M26</f>
         <v>227</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -2410,16 +2415,16 @@
       <c r="N33" s="31"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="70">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="83">
         <f>IF(M26="Completar","Completar",IFERROR(M26/(N26*24),"Error"))</f>
         <v>57.957446808510689</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="84"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -2430,16 +2435,16 @@
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="72">
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="81">
         <f>IF(K26=0,0,IFERROR(ROUNDUP(K26/(M26/100),0),"Error"))</f>
         <v>25</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -2450,16 +2455,16 @@
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="84">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="68">
         <f>IF(K26=0,0,IFERROR(K26/M26,"Error"))</f>
         <v>0.24229074889867841</v>
       </c>
-      <c r="F36" s="85"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -2470,11 +2475,11 @@
       <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="57">
         <f>E5</f>
         <v>2.8472222222222232E-2</v>
@@ -2493,11 +2498,11 @@
       <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="57">
         <f>E9</f>
         <v>4.8611111111110938E-3</v>
@@ -2516,11 +2521,11 @@
       <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="57">
         <f>E13</f>
         <v>3.5416666666666652E-2</v>
@@ -2539,11 +2544,11 @@
       <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="57">
         <f>E30</f>
         <v>4.8611111111109828E-3</v>
@@ -2562,11 +2567,11 @@
       <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="57">
         <f>L26</f>
         <v>4.0277777777777773E-2</v>
@@ -2585,11 +2590,11 @@
       <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="57">
         <f>J26</f>
         <v>0.12291666666666656</v>
@@ -2608,16 +2613,16 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="86">
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="73">
         <f>IF(COUNTIF(E37:E42,"Error")&gt;0,"Error",IF(SUM(E37:E42)=0,"Completar",SUM(E37:E42)))</f>
         <v>0.2368055555555553</v>
       </c>
-      <c r="F43" s="87"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="35"/>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
@@ -2658,13 +2663,27 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="44">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E43:F43"/>
@@ -2681,27 +2700,13 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1048576 D1:XFD1048576 C3:C1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
